--- a/excel/service_Certs.xlsx
+++ b/excel/service_Certs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11865" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6735" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,277 +19,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="90">
-  <x:si>
-    <x:t>International Medical Tour Coordinator</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">보건복지부, 문화체육관광부
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관광·체육</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+  <x:si>
+    <x:t>Certificate of Game Programmer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Computer Specialist in Spreadsheet &amp; Database Level-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Computer Specialist in Spreadsheet &amp; Database Level-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E-Learning Service Manager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Word Processor Specialist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E-Business Master Level-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Certificate of Game Planner</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E-Business Master Level-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Stenographer Level-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Stenographer Level-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Stenographer Level-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Computerized Accounting Specialist Level-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Computerized Accounting Specialist Level-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Computerized Accounting Specialist Level-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Secretarial Administrator Level-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Secretarial Administrator Level-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이러닝운영관리사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name_eng</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ministry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전산회계운용사1급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컴퓨터활용능력1급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전산회계운용사3급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전산회계운용사2급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전자상거래관리사2급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컴퓨터활용능력2급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전자상거래관리사1급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한국콘텐츠진흥원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한국산업인력공단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임프로그래밍전문가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임그래픽전문가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전자상거래운용사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>majors</x:t>
+  </x:si>
+  <x:si>
+    <x:t>code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글속기3급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비서1급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대한상공회의소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>워드프로세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임기획전문가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글속기2급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비서2급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>host</x:t>
   </x:si>
   <x:si>
     <x:t>고용노동부</x:t>
   </x:si>
   <x:si>
+    <x:t>비서3급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글속기1급</x:t>
+  </x:si>
+  <x:si>
     <x:t>산업통상자원부</x:t>
   </x:si>
   <x:si>
+    <x:t>정보통신</x:t>
+  </x:si>
+  <x:si>
     <x:t>문화체육관광부</x:t>
   </x:si>
   <x:si>
-    <x:t>공정거래위원회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보건·의료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보건복지부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사회복지·종교</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사회조사분석사2급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컨벤션기획사1급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소비자전문상담사1급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사회조사분석사1급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소비자전문상담사2급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컨벤션기획사2급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전산회계운용사1급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컴퓨터활용능력1급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전자상거래관리사2급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>텔레마케팅관리사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전산회계운용사3급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전산회계운용사2급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컴퓨터활용능력2급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국제의료관광코디네이터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전자상거래관리사1급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한국콘텐츠진흥원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한국산업인력공단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임그래픽전문가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스포츠경영관리사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임프로그래밍전문가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전자상거래운용사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>멀티미디어콘텐츠제작전문가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영업·판매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보통신</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비서3급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글속기1급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>임상심리사1급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글속기2급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비서2급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글속기3급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>임상심리사2급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직업상담사1급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임기획전문가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비서1급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대한상공회의소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>워드프로세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직업상담사2급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vocational Counselor, Senior</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Telemarketing Administrator</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E-Learning Service Manager</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Word Processor Specialist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이러닝운영관리사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과학기술정보통신부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Computerized Accounting Specialist Level-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Computerized Accounting Specialist Level-3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Computerized Accounting Specialist Level-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Specialist-Multimedia Contents Producing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Certificate of Game Programmer</x:t>
-  </x:si>
-  <x:si>
     <x:t>Secretarial Administrator Level-1</x:t>
   </x:si>
   <x:si>
-    <x:t>Clinical Psychology Practitioner</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Secretarial Administrator Level-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Secretarial Administrator Level-3</x:t>
-  </x:si>
-  <x:si>
     <x:t>Certificate of Game Graphics Designer</x:t>
   </x:si>
   <x:si>
-    <x:t>host</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>majors</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통계청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean Stenographer Level-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean Stenographer Level-3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean Stenographer Level-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E-Business Master Level-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Certificate of Game Planner</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E-Business Master Level-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Convention Meeting Planner 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Convention Meeting Planner 1</x:t>
-  </x:si>
-  <x:si>
     <x:t>교육·자연·과학·사회과학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Survey Analyst, Senior</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Consumer Adviser Senior</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vocational Counselor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Survey Analyst,Junior</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Consumer Adviser Junior</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sport Business Manager</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clinical Psychologist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Computer Specialist in Spreadsheet &amp; Database Level-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Computer Specialist in Spreadsheet &amp; Database Level-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name_eng</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ministry</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -327,46 +215,16 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff373a3c"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff373a3c"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff333333"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff333333"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff373a3c"/>
+    </x:font>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff333333"/>
+    </x:font>
   </x:fonts>
   <x:fills count="6">
     <x:fill>
@@ -561,7 +419,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="22">
+  <x:cellXfs count="21">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -665,19 +523,6 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
@@ -1492,871 +1337,608 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:AH34"/>
+  <x:dimension ref="A1:AH31"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B21" activeCellId="0" sqref="B21:B21"/>
+      <x:selection activeCell="B11" activeCellId="0" sqref="B11:B11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:cols>
-    <x:col min="1" max="1" width="46.22265625" style="12" customWidth="1"/>
-    <x:col min="2" max="2" width="34.66796875" style="12" customWidth="1"/>
-    <x:col min="3" max="3" width="19.66796875" style="12" customWidth="1"/>
-    <x:col min="4" max="4" width="23.66796875" style="12" customWidth="1"/>
-    <x:col min="5" max="5" width="24" style="12" customWidth="1"/>
-    <x:col min="6" max="6" width="18.33203125" style="12" customWidth="1"/>
-    <x:col min="7" max="16384" width="8.88671875" style="12"/>
+    <x:col min="1" max="1" width="46.22265625" style="11" customWidth="1"/>
+    <x:col min="2" max="2" width="34.66796875" style="11" customWidth="1"/>
+    <x:col min="3" max="3" width="19.66796875" style="11" customWidth="1"/>
+    <x:col min="4" max="4" width="23.66796875" style="11" customWidth="1"/>
+    <x:col min="5" max="5" width="24" style="11" customWidth="1"/>
+    <x:col min="6" max="6" width="18.33203125" style="11" customWidth="1"/>
+    <x:col min="7" max="16384" width="8.88671875" style="11"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">
-      <x:c r="A1" s="12" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="B1" s="12" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C1" s="12" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D1" s="12" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="E1" s="12" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="F1" s="12" t="s">
-        <x:v>66</x:v>
+      <x:c r="A1" s="11" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B1" s="11" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C1" s="11" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D1" s="11" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E1" s="11" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F1" s="11" t="s">
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:34" ht="14.699999999999999">
       <x:c r="A2" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B2" s="20" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C2" s="12">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B2" s="19" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="11">
         <x:v>9961</x:v>
       </x:c>
-      <x:c r="D2" s="14" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E2" s="15" t="s">
+      <x:c r="D2" s="13" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="F2" s="13" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="G2" s="16"/>
-      <x:c r="H2" s="16"/>
-      <x:c r="I2" s="16"/>
-      <x:c r="J2" s="16"/>
-      <x:c r="K2" s="16"/>
-      <x:c r="L2" s="16"/>
-      <x:c r="M2" s="16"/>
-      <x:c r="N2" s="16"/>
-      <x:c r="O2" s="16"/>
-      <x:c r="P2" s="16"/>
-      <x:c r="Q2" s="16"/>
-      <x:c r="R2" s="16"/>
-      <x:c r="S2" s="16"/>
-      <x:c r="T2" s="16"/>
-      <x:c r="U2" s="16"/>
-      <x:c r="V2" s="16"/>
-      <x:c r="W2" s="16"/>
-      <x:c r="X2" s="16"/>
-      <x:c r="Y2" s="16"/>
-      <x:c r="Z2" s="16"/>
-      <x:c r="AA2" s="16"/>
-      <x:c r="AB2" s="16"/>
-      <x:c r="AC2" s="16"/>
-      <x:c r="AD2" s="16"/>
-      <x:c r="AE2" s="16"/>
-      <x:c r="AF2" s="16"/>
-      <x:c r="AG2" s="16"/>
-      <x:c r="AH2" s="16"/>
+      <x:c r="E2" s="14" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F2" s="12" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G2" s="15"/>
+      <x:c r="H2" s="15"/>
+      <x:c r="I2" s="15"/>
+      <x:c r="J2" s="15"/>
+      <x:c r="K2" s="15"/>
+      <x:c r="L2" s="15"/>
+      <x:c r="M2" s="15"/>
+      <x:c r="N2" s="15"/>
+      <x:c r="O2" s="15"/>
+      <x:c r="P2" s="15"/>
+      <x:c r="Q2" s="15"/>
+      <x:c r="R2" s="15"/>
+      <x:c r="S2" s="15"/>
+      <x:c r="T2" s="15"/>
+      <x:c r="U2" s="15"/>
+      <x:c r="V2" s="15"/>
+      <x:c r="W2" s="15"/>
+      <x:c r="X2" s="15"/>
+      <x:c r="Y2" s="15"/>
+      <x:c r="Z2" s="15"/>
+      <x:c r="AA2" s="15"/>
+      <x:c r="AB2" s="15"/>
+      <x:c r="AC2" s="15"/>
+      <x:c r="AD2" s="15"/>
+      <x:c r="AE2" s="15"/>
+      <x:c r="AF2" s="15"/>
+      <x:c r="AG2" s="15"/>
+      <x:c r="AH2" s="15"/>
     </x:row>
     <x:row r="3" spans="1:6" ht="27.100000000000001">
       <x:c r="A3" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B3" s="20" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C3" s="12">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B3" s="19" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C3" s="11">
         <x:v>9611</x:v>
       </x:c>
-      <x:c r="D3" s="14" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E3" s="15" t="s">
+      <x:c r="D3" s="13" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="F3" s="13" t="s">
-        <x:v>67</x:v>
+      <x:c r="E3" s="14" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F3" s="12" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6" ht="27.100000000000001">
       <x:c r="A4" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B4" s="20" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="C4" s="12">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B4" s="19" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C4" s="11">
         <x:v>9612</x:v>
       </x:c>
-      <x:c r="D4" s="14" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E4" s="15" t="s">
+      <x:c r="D4" s="13" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="F4" s="13" t="s">
-        <x:v>67</x:v>
+      <x:c r="E4" s="14" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F4" s="12" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" ht="14.300000000000001">
       <x:c r="A5" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B5" s="21" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C5" s="12">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B5" s="20" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C5" s="11">
         <x:v>9937</x:v>
       </x:c>
-      <x:c r="D5" s="14" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E5" s="15" t="s">
+      <x:c r="D5" s="13" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="F5" s="13" t="s">
-        <x:v>67</x:v>
+      <x:c r="E5" s="14" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F5" s="12" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" ht="14.300000000000001">
       <x:c r="A6" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B6" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C6" s="11">
+        <x:v>9938</x:v>
+      </x:c>
+      <x:c r="D6" s="13" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E6" s="14" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B6" s="11" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="C6" s="12">
-        <x:v>9938</x:v>
-      </x:c>
-      <x:c r="D6" s="14" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E6" s="15" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="F6" s="13" t="s">
-        <x:v>67</x:v>
+      <x:c r="F6" s="12" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" ht="14.300000000000001">
       <x:c r="A7" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B7" s="20" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C7" s="12">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B7" s="19" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C7" s="11">
         <x:v>9939</x:v>
       </x:c>
-      <x:c r="D7" s="14" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E7" s="15" t="s">
+      <x:c r="D7" s="13" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="F7" s="13" t="s">
-        <x:v>67</x:v>
+      <x:c r="E7" s="14" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F7" s="12" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6" ht="14.300000000000001">
       <x:c r="A8" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B8" s="20" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C8" s="12">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B8" s="19" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C8" s="11">
         <x:v>9971</x:v>
       </x:c>
-      <x:c r="D8" s="14" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E8" s="15" t="s">
+      <x:c r="D8" s="13" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="F8" s="13" t="s">
-        <x:v>67</x:v>
+      <x:c r="E8" s="14" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F8" s="12" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6" ht="14.300000000000001">
       <x:c r="A9" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B9" s="20" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="C9" s="12">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B9" s="19" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C9" s="11">
         <x:v>9972</x:v>
       </x:c>
-      <x:c r="D9" s="14" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E9" s="15" t="s">
+      <x:c r="D9" s="13" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="F9" s="13" t="s">
-        <x:v>67</x:v>
+      <x:c r="E9" s="14" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F9" s="12" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6" ht="14.300000000000001">
       <x:c r="A10" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B10" s="20" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C10" s="12">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B10" s="19" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C10" s="11">
         <x:v>9973</x:v>
       </x:c>
-      <x:c r="D10" s="14" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E10" s="15" t="s">
+      <x:c r="D10" s="13" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="F10" s="13" t="s">
-        <x:v>67</x:v>
+      <x:c r="E10" s="14" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F10" s="12" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6" ht="14.300000000000001">
       <x:c r="A11" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B11" s="20" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C11" s="12">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B11" s="19" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C11" s="11">
         <x:v>9621</x:v>
       </x:c>
-      <x:c r="D11" s="14" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E11" s="15" t="s">
+      <x:c r="D11" s="13" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="F11" s="13" t="s">
-        <x:v>67</x:v>
+      <x:c r="E11" s="14" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F11" s="12" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6" ht="14.300000000000001">
       <x:c r="A12" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B12" s="20" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C12" s="12">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B12" s="19" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C12" s="11">
         <x:v>9622</x:v>
       </x:c>
-      <x:c r="D12" s="14" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E12" s="15" t="s">
+      <x:c r="D12" s="13" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="F12" s="13" t="s">
-        <x:v>67</x:v>
+      <x:c r="E12" s="14" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F12" s="12" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6" ht="14.300000000000001">
       <x:c r="A13" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B13" s="20" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C13" s="12">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B13" s="19" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C13" s="11">
         <x:v>9623</x:v>
       </x:c>
-      <x:c r="D13" s="14" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E13" s="15" t="s">
+      <x:c r="D13" s="13" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="F13" s="13" t="s">
-        <x:v>67</x:v>
+      <x:c r="E13" s="14" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F13" s="12" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6" ht="14.300000000000001">
       <x:c r="A14" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B14" s="10"/>
-      <x:c r="C14" s="12">
+      <x:c r="B14" s="9"/>
+      <x:c r="C14" s="11">
         <x:v>9940</x:v>
       </x:c>
-      <x:c r="D14" s="14" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E14" s="15" t="s">
+      <x:c r="D14" s="13" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="F14" s="13" t="s">
-        <x:v>67</x:v>
+      <x:c r="E14" s="14" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F14" s="12" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6" ht="14.300000000000001">
       <x:c r="A15" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B15" s="20" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="C15" s="12">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B15" s="19" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C15" s="11">
         <x:v>9530</x:v>
       </x:c>
       <x:c r="D15" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E15" s="15" t="s">
-        <x:v>44</x:v>
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E15" s="14" t="s">
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F15" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6" ht="14.300000000000001">
       <x:c r="A16" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B16" s="10" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="C16" s="12">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B16" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C16" s="11">
         <x:v>9531</x:v>
       </x:c>
       <x:c r="D16" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E16" s="15" t="s">
-        <x:v>44</x:v>
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E16" s="14" t="s">
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F16" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6" ht="14.300000000000001">
-      <x:c r="A17" s="4" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B17" s="20" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="C17" s="12">
-        <x:v>9520</x:v>
-      </x:c>
-      <x:c r="D17" s="5" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E17" s="17" t="s">
+      <x:c r="A17" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B17" s="19" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C17" s="11">
+        <x:v>9543</x:v>
+      </x:c>
+      <x:c r="D17" s="17" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E17" s="18" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F17" s="8" t="s">
-        <x:v>68</x:v>
+      <x:c r="F17" s="12" t="s">
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6" ht="14.300000000000001">
-      <x:c r="A18" s="4" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B18" s="20" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C18" s="12">
-        <x:v>9521</x:v>
-      </x:c>
-      <x:c r="D18" s="5" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E18" s="17" t="s">
+      <x:c r="A18" s="6" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B18" s="19" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C18" s="11">
+        <x:v>9544</x:v>
+      </x:c>
+      <x:c r="D18" s="17" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E18" s="18" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F18" s="8" t="s">
-        <x:v>68</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:6" ht="14.300000000000001">
-      <x:c r="A19" s="4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B19" s="20" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C19" s="12">
-        <x:v>9535</x:v>
-      </x:c>
-      <x:c r="D19" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E19" s="17" t="s">
+      <x:c r="F18" s="12" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6" ht="14.699999999999999">
+      <x:c r="A19" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B19" s="19" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C19" s="11">
+        <x:v>9542</x:v>
+      </x:c>
+      <x:c r="D19" s="17" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E19" s="18" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F19" s="8" t="s">
-        <x:v>68</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:6" ht="14.300000000000001">
+      <x:c r="F19" s="12" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6" ht="27.100000000000001">
       <x:c r="A20" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B20" s="20" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C20" s="12">
-        <x:v>9536</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B20" s="19" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C20" s="11">
+        <x:v>9547</x:v>
       </x:c>
       <x:c r="D20" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E20" s="17" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F20" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E20" s="16" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F20" s="12" t="s">
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6" ht="14.300000000000001">
-      <x:c r="A21" s="4" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B21" s="20" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C21" s="12">
-        <x:v>9537</x:v>
-      </x:c>
-      <x:c r="D21" s="5" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E21" s="17" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F21" s="8" t="s">
-        <x:v>68</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:6" ht="14.300000000000001">
-      <x:c r="A22" s="4" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B22" s="20" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C22" s="12">
-        <x:v>9538</x:v>
-      </x:c>
-      <x:c r="D22" s="5" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E22" s="17" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F22" s="8" t="s">
-        <x:v>68</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:34" ht="14.300000000000001">
-      <x:c r="A23" s="4" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B23" s="20" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="C23" s="12">
-        <x:v>9539</x:v>
-      </x:c>
-      <x:c r="D23" s="5" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E23" s="17" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F23" s="13" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G23" s="16"/>
-      <x:c r="H23" s="16"/>
-      <x:c r="I23" s="16"/>
-      <x:c r="J23" s="16"/>
-      <x:c r="K23" s="16"/>
-      <x:c r="L23" s="16"/>
-      <x:c r="M23" s="16"/>
-      <x:c r="N23" s="16"/>
-      <x:c r="O23" s="16"/>
-      <x:c r="P23" s="16"/>
-      <x:c r="Q23" s="16"/>
-      <x:c r="R23" s="16"/>
-      <x:c r="S23" s="16"/>
-      <x:c r="T23" s="16"/>
-      <x:c r="U23" s="16"/>
-      <x:c r="V23" s="16"/>
-      <x:c r="W23" s="16"/>
-      <x:c r="X23" s="16"/>
-      <x:c r="Y23" s="16"/>
-      <x:c r="Z23" s="16"/>
-      <x:c r="AA23" s="16"/>
-      <x:c r="AB23" s="16"/>
-      <x:c r="AC23" s="16"/>
-      <x:c r="AD23" s="16"/>
-      <x:c r="AE23" s="16"/>
-      <x:c r="AF23" s="16"/>
-      <x:c r="AG23" s="16"/>
-      <x:c r="AH23" s="16"/>
-    </x:row>
-    <x:row r="24" spans="1:6" ht="14.300000000000001">
-      <x:c r="A24" s="4" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B24" s="20" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C24" s="12">
-        <x:v>9540</x:v>
-      </x:c>
-      <x:c r="D24" s="5" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E24" s="17" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F24" s="13" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:6" ht="27.850000000000001">
-      <x:c r="A25" s="17" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B25" s="20" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C25" s="12">
-        <x:v>9105</x:v>
-      </x:c>
-      <x:c r="D25" s="9" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E25" s="17" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F25" s="13" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:34" ht="14.300000000000001">
-      <x:c r="A26" s="4" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B26" s="20" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C26" s="12">
-        <x:v>9510</x:v>
-      </x:c>
-      <x:c r="D26" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E26" s="17" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F26" s="13" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G26" s="16"/>
-      <x:c r="H26" s="16"/>
-      <x:c r="I26" s="16"/>
-      <x:c r="J26" s="16"/>
-      <x:c r="K26" s="16"/>
-      <x:c r="L26" s="16"/>
-      <x:c r="M26" s="16"/>
-      <x:c r="N26" s="16"/>
-      <x:c r="O26" s="16"/>
-      <x:c r="P26" s="16"/>
-      <x:c r="Q26" s="16"/>
-      <x:c r="R26" s="16"/>
-      <x:c r="S26" s="16"/>
-      <x:c r="T26" s="16"/>
-      <x:c r="U26" s="16"/>
-      <x:c r="V26" s="16"/>
-      <x:c r="W26" s="16"/>
-      <x:c r="X26" s="16"/>
-      <x:c r="Y26" s="16"/>
-      <x:c r="Z26" s="16"/>
-      <x:c r="AA26" s="16"/>
-      <x:c r="AB26" s="16"/>
-      <x:c r="AC26" s="16"/>
-      <x:c r="AD26" s="16"/>
-      <x:c r="AE26" s="16"/>
-      <x:c r="AF26" s="16"/>
-      <x:c r="AG26" s="16"/>
-      <x:c r="AH26" s="16"/>
-    </x:row>
-    <x:row r="27" spans="1:6" ht="14.300000000000001">
-      <x:c r="A27" s="4" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="B27" s="20" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="C27" s="12">
-        <x:v>9511</x:v>
-      </x:c>
-      <x:c r="D27" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E27" s="17" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F27" s="13" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:6" ht="14.300000000000001">
-      <x:c r="A28" s="4" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B28" s="20" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="C28" s="12">
-        <x:v>9546</x:v>
-      </x:c>
-      <x:c r="D28" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E28" s="17" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F28" s="12" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:34" ht="14.300000000000001">
-      <x:c r="A29" s="4" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B29" s="20" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C29" s="12">
-        <x:v>9541</x:v>
-      </x:c>
-      <x:c r="D29" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E29" s="17" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F29" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G29" s="16"/>
-      <x:c r="H29" s="16"/>
-      <x:c r="I29" s="16"/>
-      <x:c r="J29" s="16"/>
-      <x:c r="K29" s="16"/>
-      <x:c r="L29" s="16"/>
-      <x:c r="M29" s="16"/>
-      <x:c r="N29" s="16"/>
-      <x:c r="O29" s="16"/>
-      <x:c r="P29" s="16"/>
-      <x:c r="Q29" s="16"/>
-      <x:c r="R29" s="16"/>
-      <x:c r="S29" s="16"/>
-      <x:c r="T29" s="16"/>
-      <x:c r="U29" s="16"/>
-      <x:c r="V29" s="16"/>
-      <x:c r="W29" s="16"/>
-      <x:c r="X29" s="16"/>
-      <x:c r="Y29" s="16"/>
-      <x:c r="Z29" s="16"/>
-      <x:c r="AA29" s="16"/>
-      <x:c r="AB29" s="16"/>
-      <x:c r="AC29" s="16"/>
-      <x:c r="AD29" s="16"/>
-      <x:c r="AE29" s="16"/>
-      <x:c r="AF29" s="16"/>
-      <x:c r="AG29" s="16"/>
-      <x:c r="AH29" s="16"/>
-    </x:row>
-    <x:row r="30" spans="1:34" ht="27.100000000000001">
-      <x:c r="A30" s="4" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B30" s="20" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C30" s="12">
-        <x:v>9547</x:v>
-      </x:c>
-      <x:c r="D30" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E30" s="17" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F30" s="13" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="G30" s="16"/>
-      <x:c r="H30" s="16"/>
-      <x:c r="I30" s="16"/>
-      <x:c r="J30" s="16"/>
-      <x:c r="K30" s="16"/>
-      <x:c r="L30" s="16"/>
-      <x:c r="M30" s="16"/>
-      <x:c r="N30" s="16"/>
-      <x:c r="O30" s="16"/>
-      <x:c r="P30" s="16"/>
-      <x:c r="Q30" s="16"/>
-      <x:c r="R30" s="16"/>
-      <x:c r="S30" s="16"/>
-      <x:c r="T30" s="16"/>
-      <x:c r="U30" s="16"/>
-      <x:c r="V30" s="16"/>
-      <x:c r="W30" s="16"/>
-      <x:c r="X30" s="16"/>
-      <x:c r="Y30" s="16"/>
-      <x:c r="Z30" s="16"/>
-      <x:c r="AA30" s="16"/>
-      <x:c r="AB30" s="16"/>
-      <x:c r="AC30" s="16"/>
-      <x:c r="AD30" s="16"/>
-      <x:c r="AE30" s="16"/>
-      <x:c r="AF30" s="16"/>
-      <x:c r="AG30" s="16"/>
-      <x:c r="AH30" s="16"/>
-    </x:row>
-    <x:row r="31" spans="1:34" ht="14.300000000000001">
-      <x:c r="A31" s="4" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B31" s="20" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C31" s="12">
-        <x:v>9545</x:v>
-      </x:c>
-      <x:c r="D31" s="5" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E31" s="17" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F31" s="13" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G31" s="16"/>
-      <x:c r="H31" s="16"/>
-      <x:c r="I31" s="16"/>
-      <x:c r="J31" s="16"/>
-      <x:c r="K31" s="16"/>
-      <x:c r="L31" s="16"/>
-      <x:c r="M31" s="16"/>
-      <x:c r="N31" s="16"/>
-      <x:c r="O31" s="16"/>
-      <x:c r="P31" s="16"/>
-      <x:c r="Q31" s="16"/>
-      <x:c r="R31" s="16"/>
-      <x:c r="S31" s="16"/>
-      <x:c r="T31" s="16"/>
-      <x:c r="U31" s="16"/>
-      <x:c r="V31" s="16"/>
-      <x:c r="W31" s="16"/>
-      <x:c r="X31" s="16"/>
-      <x:c r="Y31" s="16"/>
-      <x:c r="Z31" s="16"/>
-      <x:c r="AA31" s="16"/>
-      <x:c r="AB31" s="16"/>
-      <x:c r="AC31" s="16"/>
-      <x:c r="AD31" s="16"/>
-      <x:c r="AE31" s="16"/>
-      <x:c r="AF31" s="16"/>
-      <x:c r="AG31" s="16"/>
-      <x:c r="AH31" s="16"/>
-    </x:row>
-    <x:row r="32" spans="1:6" ht="14.300000000000001">
-      <x:c r="A32" s="6" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B32" s="20" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C32" s="12">
-        <x:v>9543</x:v>
-      </x:c>
-      <x:c r="D32" s="18" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E32" s="19" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F32" s="13" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:6" ht="14.300000000000001">
-      <x:c r="A33" s="6" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B33" s="20" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C33" s="12">
-        <x:v>9544</x:v>
-      </x:c>
-      <x:c r="D33" s="18" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E33" s="19" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F33" s="13" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:6" ht="14.699999999999999">
-      <x:c r="A34" s="7" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B34" s="20" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="C34" s="12">
-        <x:v>9542</x:v>
-      </x:c>
-      <x:c r="D34" s="18" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E34" s="19" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F34" s="13" t="s">
-        <x:v>33</x:v>
-      </x:c>
+      <x:c r="A21" s="4"/>
+      <x:c r="B21" s="19"/>
+      <x:c r="D21" s="5"/>
+      <x:c r="E21" s="16"/>
+      <x:c r="F21" s="12"/>
+    </x:row>
+    <x:row r="23" spans="7:34">
+      <x:c r="G23" s="15"/>
+      <x:c r="H23" s="15"/>
+      <x:c r="I23" s="15"/>
+      <x:c r="J23" s="15"/>
+      <x:c r="K23" s="15"/>
+      <x:c r="L23" s="15"/>
+      <x:c r="M23" s="15"/>
+      <x:c r="N23" s="15"/>
+      <x:c r="O23" s="15"/>
+      <x:c r="P23" s="15"/>
+      <x:c r="Q23" s="15"/>
+      <x:c r="R23" s="15"/>
+      <x:c r="S23" s="15"/>
+      <x:c r="T23" s="15"/>
+      <x:c r="U23" s="15"/>
+      <x:c r="V23" s="15"/>
+      <x:c r="W23" s="15"/>
+      <x:c r="X23" s="15"/>
+      <x:c r="Y23" s="15"/>
+      <x:c r="Z23" s="15"/>
+      <x:c r="AA23" s="15"/>
+      <x:c r="AB23" s="15"/>
+      <x:c r="AC23" s="15"/>
+      <x:c r="AD23" s="15"/>
+      <x:c r="AE23" s="15"/>
+      <x:c r="AF23" s="15"/>
+      <x:c r="AG23" s="15"/>
+      <x:c r="AH23" s="15"/>
+    </x:row>
+    <x:row r="26" spans="7:34">
+      <x:c r="G26" s="15"/>
+      <x:c r="H26" s="15"/>
+      <x:c r="I26" s="15"/>
+      <x:c r="J26" s="15"/>
+      <x:c r="K26" s="15"/>
+      <x:c r="L26" s="15"/>
+      <x:c r="M26" s="15"/>
+      <x:c r="N26" s="15"/>
+      <x:c r="O26" s="15"/>
+      <x:c r="P26" s="15"/>
+      <x:c r="Q26" s="15"/>
+      <x:c r="R26" s="15"/>
+      <x:c r="S26" s="15"/>
+      <x:c r="T26" s="15"/>
+      <x:c r="U26" s="15"/>
+      <x:c r="V26" s="15"/>
+      <x:c r="W26" s="15"/>
+      <x:c r="X26" s="15"/>
+      <x:c r="Y26" s="15"/>
+      <x:c r="Z26" s="15"/>
+      <x:c r="AA26" s="15"/>
+      <x:c r="AB26" s="15"/>
+      <x:c r="AC26" s="15"/>
+      <x:c r="AD26" s="15"/>
+      <x:c r="AE26" s="15"/>
+      <x:c r="AF26" s="15"/>
+      <x:c r="AG26" s="15"/>
+      <x:c r="AH26" s="15"/>
+    </x:row>
+    <x:row r="29" spans="7:34">
+      <x:c r="G29" s="15"/>
+      <x:c r="H29" s="15"/>
+      <x:c r="I29" s="15"/>
+      <x:c r="J29" s="15"/>
+      <x:c r="K29" s="15"/>
+      <x:c r="L29" s="15"/>
+      <x:c r="M29" s="15"/>
+      <x:c r="N29" s="15"/>
+      <x:c r="O29" s="15"/>
+      <x:c r="P29" s="15"/>
+      <x:c r="Q29" s="15"/>
+      <x:c r="R29" s="15"/>
+      <x:c r="S29" s="15"/>
+      <x:c r="T29" s="15"/>
+      <x:c r="U29" s="15"/>
+      <x:c r="V29" s="15"/>
+      <x:c r="W29" s="15"/>
+      <x:c r="X29" s="15"/>
+      <x:c r="Y29" s="15"/>
+      <x:c r="Z29" s="15"/>
+      <x:c r="AA29" s="15"/>
+      <x:c r="AB29" s="15"/>
+      <x:c r="AC29" s="15"/>
+      <x:c r="AD29" s="15"/>
+      <x:c r="AE29" s="15"/>
+      <x:c r="AF29" s="15"/>
+      <x:c r="AG29" s="15"/>
+      <x:c r="AH29" s="15"/>
+    </x:row>
+    <x:row r="30" spans="7:34">
+      <x:c r="G30" s="15"/>
+      <x:c r="H30" s="15"/>
+      <x:c r="I30" s="15"/>
+      <x:c r="J30" s="15"/>
+      <x:c r="K30" s="15"/>
+      <x:c r="L30" s="15"/>
+      <x:c r="M30" s="15"/>
+      <x:c r="N30" s="15"/>
+      <x:c r="O30" s="15"/>
+      <x:c r="P30" s="15"/>
+      <x:c r="Q30" s="15"/>
+      <x:c r="R30" s="15"/>
+      <x:c r="S30" s="15"/>
+      <x:c r="T30" s="15"/>
+      <x:c r="U30" s="15"/>
+      <x:c r="V30" s="15"/>
+      <x:c r="W30" s="15"/>
+      <x:c r="X30" s="15"/>
+      <x:c r="Y30" s="15"/>
+      <x:c r="Z30" s="15"/>
+      <x:c r="AA30" s="15"/>
+      <x:c r="AB30" s="15"/>
+      <x:c r="AC30" s="15"/>
+      <x:c r="AD30" s="15"/>
+      <x:c r="AE30" s="15"/>
+      <x:c r="AF30" s="15"/>
+      <x:c r="AG30" s="15"/>
+      <x:c r="AH30" s="15"/>
+    </x:row>
+    <x:row r="31" spans="7:34">
+      <x:c r="G31" s="15"/>
+      <x:c r="H31" s="15"/>
+      <x:c r="I31" s="15"/>
+      <x:c r="J31" s="15"/>
+      <x:c r="K31" s="15"/>
+      <x:c r="L31" s="15"/>
+      <x:c r="M31" s="15"/>
+      <x:c r="N31" s="15"/>
+      <x:c r="O31" s="15"/>
+      <x:c r="P31" s="15"/>
+      <x:c r="Q31" s="15"/>
+      <x:c r="R31" s="15"/>
+      <x:c r="S31" s="15"/>
+      <x:c r="T31" s="15"/>
+      <x:c r="U31" s="15"/>
+      <x:c r="V31" s="15"/>
+      <x:c r="W31" s="15"/>
+      <x:c r="X31" s="15"/>
+      <x:c r="Y31" s="15"/>
+      <x:c r="Z31" s="15"/>
+      <x:c r="AA31" s="15"/>
+      <x:c r="AB31" s="15"/>
+      <x:c r="AC31" s="15"/>
+      <x:c r="AD31" s="15"/>
+      <x:c r="AE31" s="15"/>
+      <x:c r="AF31" s="15"/>
+      <x:c r="AG31" s="15"/>
+      <x:c r="AH31" s="15"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/excel/service_Certs.xlsx
+++ b/excel/service_Certs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6735" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11865" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,54 +19,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="67">
+  <x:si>
+    <x:t>시간이 지날수록 급증하는 전자상거래 매출에 비교하여 전자상거래 전문 인력은 턱없이 부족한 현실을 감안해 전자상거래와 관련된 기획 및 관리업무를 총괄하는 인터넷 비즈 니스 전문가. 인터넷 이용이 급증하면서 이를 이용한 전자상거래업이 급속히 늘어나자 국가기술자격으로 추진되었음.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비서3급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보통신</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비서2급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글속기3급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비서1급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임기획전문가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고용노동부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>워드프로세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>host</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글속기1급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글속기2급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>산업통상자원부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대한상공회의소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문화체육관광부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>majors</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전산회계 분야 최초의 국가공인기술자격으로서 전산회계 분야 전문기능의 실력을 검증하 고 전문인력을 양성하기 위해 도입 시행. 3급 시험은 고등학교 졸업 정도의 상업부기와 원가회계와 회계처리에 관한 지식을 갖추고 중소기업의 회계실무자로서 회계 프로그램 을 이용하여 회계업무를 처리할 수 있는 능력의 유무를 검증.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전산회계 분야 최초의 국가공인기술자격으로서 전산회계 분야 전문기능의 실력을 검증하 고 전문인력을 양성하기 위해 도입 시행. 2급 시험은 고등학교 졸업 또는 대학의 중급 수준의 회계원리와 원가회계에 관한 지식을 갖추고 대기업의 회계실무자 또는 중소기업 의 회계책임자로서 회계 프로그램을 이용하여 회계전반에 관한 업무를 수행할 수 있는 능력의 유무를 검증.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Computerized Accounting Specialist Level-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Computerized Accounting Specialist Level-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Computerized Accounting Specialist Level-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임제작의 전반적인 개념이해를 토대로 게임동작을 구현하는 프로그래밍을 작성하는 직무수행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전자상거래에 대한 기초적인 지식과 기능을 가지고 전자상거래관리사의 업무를 보조할 수 있는 자로서 관련 분야의 업무를 수행할 수 있는 지식과 기능을 평가하는 국가기술 자격 시험임.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이러닝(비대면 원격교육)의 운영과 관련한 운영계획 수립, 활동 지원 및 관리 등의 업무를 수행하는 전문가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Computer Specialist in Spreadsheet &amp; Database Level-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Computer Specialist in Spreadsheet &amp; Database Level-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전산회계 분야 최초의 국가공인기술자격으로서 전산회계 분야 전문기능의 실력을 검증하 고 전문인력을 양성하기 위해 도입 시행. 1급 시험은 대학 상급수준의 회계원리, 원가 회계 및 세무회계에 관한 지식을 갖추고 대기업의 회계 책임자로서 회계 프로그램을 이 용하여 회계 전반에 관한 업무를 수행할 수 있는 능력의 유무를 검증.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>국회, 지방의회·법원의 기록유지는 물론 각종 회의, 강연, 토론, 좌담회 등의 내용을 빠르고 정확하게 기록하기 위해서는 속기가 필수적임. &lt;속기&gt; 검정은 발언내용의 신속·정확한 입력 (기록)능력을 평가하는 국가기술자격 시험임.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임배경의 설정, 게임이벤트 연출, 게임시스템 설계 등 게임기획 실무를 담당하며 게임 제작 준비단계를 수행하기 위한 게임설계 업무수행</x:t>
+  </x:si>
   <x:si>
     <x:t>Certificate of Game Programmer</x:t>
   </x:si>
   <x:si>
-    <x:t>Computer Specialist in Spreadsheet &amp; Database Level-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Computer Specialist in Spreadsheet &amp; Database Level-2</x:t>
+    <x:t>Secretarial Administrator Level-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Secretarial Administrator Level-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Secretarial Administrator Level-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육·자연·과학·사회과학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Stenographer Level-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E-Business Master Level-1</x:t>
   </x:si>
   <x:si>
     <x:t>E-Learning Service Manager</x:t>
   </x:si>
   <x:si>
+    <x:t>Certificate of Game Planner</x:t>
+  </x:si>
+  <x:si>
     <x:t>Word Processor Specialist</x:t>
   </x:si>
   <x:si>
-    <x:t>E-Business Master Level-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Certificate of Game Planner</x:t>
+    <x:t>Korean Stenographer Level-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Stenographer Level-1</x:t>
   </x:si>
   <x:si>
     <x:t>E-Business Master Level-2</x:t>
   </x:si>
   <x:si>
-    <x:t>Korean Stenographer Level-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean Stenographer Level-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean Stenographer Level-3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Computerized Accounting Specialist Level-3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Computerized Accounting Specialist Level-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Computerized Accounting Specialist Level-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Secretarial Administrator Level-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Secretarial Administrator Level-3</x:t>
+    <x:t>description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ministry</x:t>
   </x:si>
   <x:si>
     <x:t>이러닝운영관리사</x:t>
@@ -75,116 +171,62 @@
     <x:t>name_eng</x:t>
   </x:si>
   <x:si>
-    <x:t>ministry</x:t>
+    <x:t>전자상거래운용사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컴퓨터활용능력2급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한국콘텐츠진흥원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전자상거래관리사1급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컴퓨터활용능력1급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임그래픽전문가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전산회계운용사3급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전산회계운용사2급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임프로그래밍전문가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한국산업인력공단</x:t>
   </x:si>
   <x:si>
     <x:t>전산회계운용사1급</x:t>
   </x:si>
   <x:si>
-    <x:t>컴퓨터활용능력1급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전산회계운용사3급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전산회계운용사2급</x:t>
-  </x:si>
-  <x:si>
     <x:t>전자상거래관리사2급</x:t>
   </x:si>
   <x:si>
-    <x:t>컴퓨터활용능력2급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전자상거래관리사1급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한국콘텐츠진흥원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한국산업인력공단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임프로그래밍전문가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임그래픽전문가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전자상거래운용사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>majors</x:t>
-  </x:si>
-  <x:si>
-    <x:t>code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글속기3급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비서1급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대한상공회의소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>워드프로세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임기획전문가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글속기2급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비서2급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>host</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고용노동부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비서3급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글속기1급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>산업통상자원부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보통신</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문화체육관광부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Secretarial Administrator Level-1</x:t>
+    <x:t>워드프로세서에 관한 상급 숙련기능을 가지고 이와 관련된 업무를 신속 ·정확하게 수행 할 수 있는 능력의 유무를 검증하기 위해서 대한상공회의소가 시행.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경영진의 업무를 보조하고 수행할 수 있는 전문인력의 수요에 대응하고 그 능력을 객관 적으로 검증하기 위하여 상공회의소가 도입 시행하는 자격시험.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>누구나 컴퓨터를 사용할 줄 알고 접하는 정보화 시대에 개개인의 컴퓨터 활용능력을 객관적으로 검증하기 위하여 도입.</x:t>
   </x:si>
   <x:si>
     <x:t>Certificate of Game Graphics Designer</x:t>
   </x:si>
   <x:si>
-    <x:t>교육·자연·과학·사회과학</x:t>
+    <x:t>게임화면의 그래픽에 관한 드로잉, 원화작업 및 컴퓨터그래픽, 동영상제작등의 직무수행</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="8">
+  <x:fonts count="10">
     <x:font>
       <x:name val="돋움"/>
       <x:sz val="11"/>
@@ -215,16 +257,86 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <x:font>
-      <x:name val="돋움"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff373a3c"/>
-    </x:font>
-    <x:font>
-      <x:name val="돋움"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff333333"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="돋움"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff373a3c"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="돋움"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff373a3c"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="돋움"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff333333"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="돋움"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff333333"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="돋움"/>
+          <x:sz val="14"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="돋움"/>
+          <x:sz val="14"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="돋움"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="돋움"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:fonts>
   <x:fills count="6">
     <x:fill>
@@ -419,7 +531,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="21">
+  <x:cellXfs count="25">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -683,6 +795,38 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
@@ -1340,7 +1484,7 @@
   <x:dimension ref="A1:AH31"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B11" activeCellId="0" sqref="B11:B11"/>
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
@@ -1351,49 +1495,55 @@
     <x:col min="4" max="4" width="23.66796875" style="11" customWidth="1"/>
     <x:col min="5" max="5" width="24" style="11" customWidth="1"/>
     <x:col min="6" max="6" width="18.33203125" style="11" customWidth="1"/>
-    <x:col min="7" max="16384" width="8.88671875" style="11"/>
+    <x:col min="7" max="7" width="8.88671875" style="22"/>
+    <x:col min="8" max="16384" width="8.88671875" style="11"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:6">
+    <x:row r="1" spans="1:7">
       <x:c r="A1" s="11" t="s">
-        <x:v>36</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="11" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C1" s="11" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D1" s="11" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E1" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F1" s="11" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C1" s="11" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D1" s="11" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E1" s="11" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="F1" s="11" t="s">
-        <x:v>33</x:v>
+      <x:c r="G1" s="22" t="s">
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:34" ht="14.699999999999999">
       <x:c r="A2" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B2" s="19" t="s">
-        <x:v>4</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C2" s="11">
         <x:v>9961</x:v>
       </x:c>
       <x:c r="D2" s="13" t="s">
-        <x:v>44</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E2" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F2" s="12" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G2" s="15"/>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G2" s="24" t="s">
+        <x:v>62</x:v>
+      </x:c>
       <x:c r="H2" s="15"/>
       <x:c r="I2" s="15"/>
       <x:c r="J2" s="15"/>
@@ -1422,362 +1572,416 @@
       <x:c r="AG2" s="15"/>
       <x:c r="AH2" s="15"/>
     </x:row>
-    <x:row r="3" spans="1:6" ht="27.100000000000001">
+    <x:row r="3" spans="1:7" ht="27.100000000000001">
       <x:c r="A3" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B3" s="19" t="s">
-        <x:v>1</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C3" s="11">
         <x:v>9611</x:v>
       </x:c>
       <x:c r="D3" s="13" t="s">
-        <x:v>44</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E3" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F3" s="12" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6" ht="27.100000000000001">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G3" s="22" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7" ht="27.100000000000001">
       <x:c r="A4" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B4" s="19" t="s">
-        <x:v>2</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C4" s="11">
         <x:v>9612</x:v>
       </x:c>
       <x:c r="D4" s="13" t="s">
-        <x:v>44</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E4" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F4" s="12" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6" ht="14.300000000000001">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G4" s="22" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7" ht="18.75">
       <x:c r="A5" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B5" s="20" t="s">
-        <x:v>50</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C5" s="11">
         <x:v>9937</x:v>
       </x:c>
       <x:c r="D5" s="13" t="s">
-        <x:v>44</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E5" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F5" s="12" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6" ht="14.300000000000001">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G5" s="21" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7" ht="18.75">
       <x:c r="A6" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C6" s="11">
         <x:v>9938</x:v>
       </x:c>
       <x:c r="D6" s="13" t="s">
-        <x:v>44</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E6" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F6" s="12" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:6" ht="14.300000000000001">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G6" s="21" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7" ht="18.75">
       <x:c r="A7" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B7" s="19" t="s">
-        <x:v>15</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C7" s="11">
         <x:v>9939</x:v>
       </x:c>
       <x:c r="D7" s="13" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E7" s="14" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F7" s="12" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G7" s="21" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7" ht="14.300000000000001">
+      <x:c r="A8" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B8" s="19" t="s">
         <x:v>44</x:v>
-      </x:c>
-      <x:c r="E7" s="14" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="F7" s="12" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:6" ht="14.300000000000001">
-      <x:c r="A8" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="B8" s="19" t="s">
-        <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="11">
         <x:v>9971</x:v>
       </x:c>
       <x:c r="D8" s="13" t="s">
-        <x:v>44</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E8" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F8" s="12" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:6" ht="14.300000000000001">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G8" s="24" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7" ht="14.300000000000001">
       <x:c r="A9" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B9" s="19" t="s">
-        <x:v>8</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C9" s="11">
         <x:v>9972</x:v>
       </x:c>
       <x:c r="D9" s="13" t="s">
-        <x:v>44</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E9" s="14" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F9" s="12" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G9" s="24" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7" ht="14.300000000000001">
+      <x:c r="A10" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B10" s="19" t="s">
         <x:v>38</x:v>
-      </x:c>
-      <x:c r="F9" s="12" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:6" ht="14.300000000000001">
-      <x:c r="A10" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B10" s="19" t="s">
-        <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="11">
         <x:v>9973</x:v>
       </x:c>
       <x:c r="D10" s="13" t="s">
-        <x:v>44</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E10" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F10" s="12" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:6" ht="14.300000000000001">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G10" s="24" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:7" ht="14.300000000000001">
       <x:c r="A11" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B11" s="19" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C11" s="11">
         <x:v>9621</x:v>
       </x:c>
       <x:c r="D11" s="13" t="s">
-        <x:v>44</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E11" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F11" s="12" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:6" ht="14.300000000000001">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G11" s="22" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7" ht="14.300000000000001">
       <x:c r="A12" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B12" s="19" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C12" s="11">
         <x:v>9622</x:v>
       </x:c>
       <x:c r="D12" s="13" t="s">
-        <x:v>44</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E12" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F12" s="12" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:6" ht="14.300000000000001">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G12" s="22" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:7" ht="14.300000000000001">
       <x:c r="A13" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B13" s="19" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="B13" s="19" t="s">
-        <x:v>11</x:v>
       </x:c>
       <x:c r="C13" s="11">
         <x:v>9623</x:v>
       </x:c>
       <x:c r="D13" s="13" t="s">
-        <x:v>44</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E13" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F13" s="12" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:6" ht="14.300000000000001">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G13" s="22" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:7" ht="14.300000000000001">
       <x:c r="A14" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B14" s="9"/>
       <x:c r="C14" s="11">
         <x:v>9940</x:v>
       </x:c>
       <x:c r="D14" s="13" t="s">
-        <x:v>44</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E14" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F14" s="12" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:6" ht="14.300000000000001">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G14" s="22" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:7" ht="14.300000000000001">
       <x:c r="A15" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B15" s="19" t="s">
-        <x:v>5</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C15" s="11">
         <x:v>9530</x:v>
       </x:c>
       <x:c r="D15" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E15" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F15" s="8" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:6" ht="14.300000000000001">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G15" s="22" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:7" ht="14.300000000000001">
       <x:c r="A16" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B16" s="9" t="s">
-        <x:v>7</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C16" s="11">
         <x:v>9531</x:v>
       </x:c>
       <x:c r="D16" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E16" s="14" t="s">
-        <x:v>38</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F16" s="8" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:6" ht="14.300000000000001">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G16" s="22" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:7" ht="14.300000000000001">
       <x:c r="A17" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B17" s="19" t="s">
-        <x:v>51</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C17" s="11">
         <x:v>9543</x:v>
       </x:c>
       <x:c r="D17" s="17" t="s">
-        <x:v>49</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E17" s="18" t="s">
-        <x:v>26</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F17" s="12" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:6" ht="14.300000000000001">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G17" s="24" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:7" ht="14.300000000000001">
       <x:c r="A18" s="6" t="s">
-        <x:v>40</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B18" s="19" t="s">
-        <x:v>6</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C18" s="11">
         <x:v>9544</x:v>
       </x:c>
       <x:c r="D18" s="17" t="s">
-        <x:v>49</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E18" s="18" t="s">
-        <x:v>26</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F18" s="12" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:6" ht="14.699999999999999">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G18" s="22" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:7" ht="14.699999999999999">
       <x:c r="A19" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B19" s="19" t="s">
-        <x:v>0</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C19" s="11">
         <x:v>9542</x:v>
       </x:c>
       <x:c r="D19" s="17" t="s">
-        <x:v>49</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E19" s="18" t="s">
-        <x:v>26</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F19" s="12" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G19" s="22" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:7" ht="27.100000000000001">
+      <x:c r="A20" s="4" t="s">
         <x:v>48</x:v>
       </x:c>
-    </x:row>
-    <x:row r="20" spans="1:6" ht="27.100000000000001">
-      <x:c r="A20" s="4" t="s">
-        <x:v>16</x:v>
-      </x:c>
       <x:c r="B20" s="19" t="s">
-        <x:v>3</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C20" s="11">
         <x:v>9547</x:v>
       </x:c>
       <x:c r="D20" s="5" t="s">
-        <x:v>47</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E20" s="16" t="s">
-        <x:v>27</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F20" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G20" s="22" t="s">
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6" ht="14.300000000000001">
@@ -1788,7 +1992,7 @@
       <x:c r="F21" s="12"/>
     </x:row>
     <x:row r="23" spans="7:34">
-      <x:c r="G23" s="15"/>
+      <x:c r="G23" s="23"/>
       <x:c r="H23" s="15"/>
       <x:c r="I23" s="15"/>
       <x:c r="J23" s="15"/>
@@ -1818,7 +2022,7 @@
       <x:c r="AH23" s="15"/>
     </x:row>
     <x:row r="26" spans="7:34">
-      <x:c r="G26" s="15"/>
+      <x:c r="G26" s="23"/>
       <x:c r="H26" s="15"/>
       <x:c r="I26" s="15"/>
       <x:c r="J26" s="15"/>
@@ -1848,7 +2052,7 @@
       <x:c r="AH26" s="15"/>
     </x:row>
     <x:row r="29" spans="7:34">
-      <x:c r="G29" s="15"/>
+      <x:c r="G29" s="23"/>
       <x:c r="H29" s="15"/>
       <x:c r="I29" s="15"/>
       <x:c r="J29" s="15"/>
@@ -1878,7 +2082,7 @@
       <x:c r="AH29" s="15"/>
     </x:row>
     <x:row r="30" spans="7:34">
-      <x:c r="G30" s="15"/>
+      <x:c r="G30" s="23"/>
       <x:c r="H30" s="15"/>
       <x:c r="I30" s="15"/>
       <x:c r="J30" s="15"/>
@@ -1908,7 +2112,7 @@
       <x:c r="AH30" s="15"/>
     </x:row>
     <x:row r="31" spans="7:34">
-      <x:c r="G31" s="15"/>
+      <x:c r="G31" s="23"/>
       <x:c r="H31" s="15"/>
       <x:c r="I31" s="15"/>
       <x:c r="J31" s="15"/>
@@ -1938,7 +2142,7 @@
       <x:c r="AH31" s="15"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>